--- a/service-system/target/classes/static/桥梁下部竖直度17规范表格.xlsx
+++ b/service-system/target/classes/static/桥梁下部竖直度17规范表格.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D152A-9CDF-46D0-BFFC-BB8455EF3744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0D0AEE-4213-4216-8471-74F5BAAC9C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,70 +521,70 @@
     <xf numFmtId="178" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -897,8 +897,8 @@
   </sheetPr>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -918,19 +918,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
@@ -991,28 +991,28 @@
       <c r="S3" s="31"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="48"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
@@ -1026,12 +1026,12 @@
       <c r="S4" s="33"/>
     </row>
     <row r="5" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="14" t="s">
         <v>12</v>
       </c>
@@ -1057,9 +1057,9 @@
       <c r="S5" s="33"/>
     </row>
     <row r="6" spans="1:19" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
@@ -1078,9 +1078,9 @@
       <c r="S6" s="23"/>
     </row>
     <row r="7" spans="1:19" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
@@ -1099,9 +1099,9 @@
       <c r="S7" s="23"/>
     </row>
     <row r="8" spans="1:19" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="37"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -1120,9 +1120,9 @@
       <c r="S8" s="23"/>
     </row>
     <row r="9" spans="1:19" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="37"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="36"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
@@ -1141,9 +1141,9 @@
       <c r="S9" s="23"/>
     </row>
     <row r="10" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
@@ -1162,9 +1162,9 @@
       <c r="S10" s="23"/>
     </row>
     <row r="11" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="36"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
@@ -1183,9 +1183,9 @@
       <c r="S11" s="23"/>
     </row>
     <row r="12" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
@@ -1204,9 +1204,9 @@
       <c r="S12" s="23"/>
     </row>
     <row r="13" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="36"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
@@ -1225,9 +1225,9 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="37"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
@@ -1246,9 +1246,9 @@
       <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="38"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
@@ -1267,9 +1267,9 @@
       <c r="S15" s="23"/>
     </row>
     <row r="16" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
@@ -1288,9 +1288,9 @@
       <c r="S16" s="23"/>
     </row>
     <row r="17" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="36"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="16"/>
@@ -1309,9 +1309,9 @@
       <c r="S17" s="23"/>
     </row>
     <row r="18" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="37"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="16"/>
@@ -1330,9 +1330,9 @@
       <c r="S18" s="23"/>
     </row>
     <row r="19" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="37"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16"/>
@@ -1351,9 +1351,9 @@
       <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="37"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
@@ -1372,9 +1372,9 @@
       <c r="S20" s="23"/>
     </row>
     <row r="21" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="37"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
@@ -1393,9 +1393,9 @@
       <c r="S21" s="23"/>
     </row>
     <row r="22" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="37"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
@@ -1414,9 +1414,9 @@
       <c r="S22" s="23"/>
     </row>
     <row r="23" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="37"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
@@ -1435,9 +1435,9 @@
       <c r="S23" s="23"/>
     </row>
     <row r="24" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="37"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="16"/>
@@ -1456,9 +1456,9 @@
       <c r="S24" s="23"/>
     </row>
     <row r="25" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="38"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
@@ -1477,9 +1477,9 @@
       <c r="S25" s="23"/>
     </row>
     <row r="26" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="37"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
@@ -1498,9 +1498,9 @@
       <c r="S26" s="23"/>
     </row>
     <row r="27" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="37"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="16"/>
@@ -1519,9 +1519,9 @@
       <c r="S27" s="23"/>
     </row>
     <row r="28" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="37"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
@@ -1540,9 +1540,9 @@
       <c r="S28" s="23"/>
     </row>
     <row r="29" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="37"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="16"/>
@@ -1561,9 +1561,9 @@
       <c r="S29" s="23"/>
     </row>
     <row r="30" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="37"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
@@ -1582,9 +1582,9 @@
       <c r="S30" s="23"/>
     </row>
     <row r="31" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="37"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
@@ -1603,9 +1603,9 @@
       <c r="S31" s="23"/>
     </row>
     <row r="32" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="37"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="35"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
@@ -1624,9 +1624,9 @@
       <c r="S32" s="23"/>
     </row>
     <row r="33" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="37"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="36"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="16"/>
@@ -1645,9 +1645,9 @@
       <c r="S33" s="23"/>
     </row>
     <row r="34" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="37"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="35"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
@@ -1666,9 +1666,9 @@
       <c r="S34" s="23"/>
     </row>
     <row r="35" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="38"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="36"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
@@ -1687,12 +1687,36 @@
       <c r="S35" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="40">
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A6:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C32:C33"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A15"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="B14:B15"/>
@@ -1704,39 +1728,12 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.98402777777777795" right="0.51180555555555596" top="0.98402777777777795" bottom="0.98402777777777795" header="0.70763888888888904" footer="0.59027777777777801"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                              复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/service-system/target/classes/static/桥梁下部竖直度17规范表格.xlsx
+++ b/service-system/target/classes/static/桥梁下部竖直度17规范表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0D0AEE-4213-4216-8471-74F5BAAC9C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A0E008-000B-404A-AFD3-69BC8A4B7BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,6 +521,33 @@
     <xf numFmtId="178" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,24 +566,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,22 +581,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -898,7 +898,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -918,19 +918,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
@@ -991,28 +991,28 @@
       <c r="S3" s="31"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
@@ -1026,12 +1026,12 @@
       <c r="S4" s="33"/>
     </row>
     <row r="5" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="14" t="s">
         <v>12</v>
       </c>
@@ -1057,10 +1057,10 @@
       <c r="S5" s="33"/>
     </row>
     <row r="6" spans="1:19" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="15"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
@@ -1078,10 +1078,10 @@
       <c r="S6" s="23"/>
     </row>
     <row r="7" spans="1:19" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="42"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
@@ -1099,10 +1099,10 @@
       <c r="S7" s="23"/>
     </row>
     <row r="8" spans="1:19" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -1120,10 +1120,10 @@
       <c r="S8" s="23"/>
     </row>
     <row r="9" spans="1:19" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -1141,10 +1141,10 @@
       <c r="S9" s="23"/>
     </row>
     <row r="10" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
@@ -1162,10 +1162,10 @@
       <c r="S10" s="23"/>
     </row>
     <row r="11" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="42"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -1183,10 +1183,10 @@
       <c r="S11" s="23"/>
     </row>
     <row r="12" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="15"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
@@ -1204,10 +1204,10 @@
       <c r="S12" s="23"/>
     </row>
     <row r="13" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="42"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="15"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
@@ -1225,10 +1225,10 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="42"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="15"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
@@ -1246,10 +1246,10 @@
       <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="42"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="15"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
@@ -1267,10 +1267,10 @@
       <c r="S15" s="23"/>
     </row>
     <row r="16" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="42"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="15"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
@@ -1288,10 +1288,10 @@
       <c r="S16" s="23"/>
     </row>
     <row r="17" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="42"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="15"/>
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
@@ -1309,10 +1309,10 @@
       <c r="S17" s="23"/>
     </row>
     <row r="18" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="15"/>
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
@@ -1330,10 +1330,10 @@
       <c r="S18" s="23"/>
     </row>
     <row r="19" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="15"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
@@ -1351,10 +1351,10 @@
       <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="42"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
@@ -1372,10 +1372,10 @@
       <c r="S20" s="23"/>
     </row>
     <row r="21" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="42"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
@@ -1393,10 +1393,10 @@
       <c r="S21" s="23"/>
     </row>
     <row r="22" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="42"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
@@ -1414,10 +1414,10 @@
       <c r="S22" s="23"/>
     </row>
     <row r="23" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="42"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
@@ -1435,10 +1435,10 @@
       <c r="S23" s="23"/>
     </row>
     <row r="24" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="42"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="15"/>
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
@@ -1456,10 +1456,10 @@
       <c r="S24" s="23"/>
     </row>
     <row r="25" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="42"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
@@ -1477,10 +1477,10 @@
       <c r="S25" s="23"/>
     </row>
     <row r="26" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="42"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="15"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
@@ -1498,10 +1498,10 @@
       <c r="S26" s="23"/>
     </row>
     <row r="27" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="42"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="15"/>
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
@@ -1519,10 +1519,10 @@
       <c r="S27" s="23"/>
     </row>
     <row r="28" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="42"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="15"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
@@ -1540,10 +1540,10 @@
       <c r="S28" s="23"/>
     </row>
     <row r="29" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="42"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="15"/>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
@@ -1561,10 +1561,10 @@
       <c r="S29" s="23"/>
     </row>
     <row r="30" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="42"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="15"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
@@ -1582,10 +1582,10 @@
       <c r="S30" s="23"/>
     </row>
     <row r="31" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="42"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="15"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>
@@ -1603,10 +1603,10 @@
       <c r="S31" s="23"/>
     </row>
     <row r="32" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="42"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="15"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
@@ -1624,10 +1624,10 @@
       <c r="S32" s="23"/>
     </row>
     <row r="33" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="15"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="15"/>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
@@ -1645,10 +1645,10 @@
       <c r="S33" s="23"/>
     </row>
     <row r="34" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="42"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="15"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
@@ -1666,10 +1666,10 @@
       <c r="S34" s="23"/>
     </row>
     <row r="35" spans="1:19" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="15"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
@@ -1688,11 +1688,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A6:A35"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
@@ -1708,26 +1717,17 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A6:A35"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.98402777777777795" right="0.51180555555555596" top="0.98402777777777795" bottom="0.98402777777777795" header="0.70763888888888904" footer="0.59027777777777801"/>
